--- a/www/IndicatorsPerCountry/Spain_GDPperCapita_TerritorialRef_1946_2012_CCode_724.xlsx
+++ b/www/IndicatorsPerCountry/Spain_GDPperCapita_TerritorialRef_1946_2012_CCode_724.xlsx
@@ -567,13 +567,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Spain_GDPperCapita_TerritorialRef_1946_2012_CCode_724.xlsx
+++ b/www/IndicatorsPerCountry/Spain_GDPperCapita_TerritorialRef_1946_2012_CCode_724.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="200">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,508 +36,547 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>846</t>
+    <t>1393.86</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>1079</t>
-  </si>
-  <si>
-    <t>1089</t>
-  </si>
-  <si>
-    <t>1133</t>
-  </si>
-  <si>
-    <t>1136</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>1163</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>1153</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>1252</t>
-  </si>
-  <si>
-    <t>1277</t>
-  </si>
-  <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>1290</t>
-  </si>
-  <si>
-    <t>1283</t>
-  </si>
-  <si>
-    <t>1149</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>1207</t>
-  </si>
-  <si>
-    <t>1298</t>
-  </si>
-  <si>
-    <t>1473</t>
-  </si>
-  <si>
-    <t>1598</t>
-  </si>
-  <si>
-    <t>1459</t>
-  </si>
-  <si>
-    <t>1496</t>
-  </si>
-  <si>
-    <t>1519</t>
-  </si>
-  <si>
-    <t>1668</t>
-  </si>
-  <si>
-    <t>1618</t>
-  </si>
-  <si>
-    <t>1520</t>
-  </si>
-  <si>
-    <t>1646</t>
-  </si>
-  <si>
-    <t>1679</t>
-  </si>
-  <si>
-    <t>1692</t>
+    <t>1447.47</t>
+  </si>
+  <si>
+    <t>1465.34</t>
+  </si>
+  <si>
+    <t>1429.6</t>
+  </si>
+  <si>
+    <t>1518.95</t>
+  </si>
+  <si>
+    <t>1483.21</t>
+  </si>
+  <si>
+    <t>1554.69</t>
+  </si>
+  <si>
+    <t>1536.82</t>
+  </si>
+  <si>
+    <t>1375.99</t>
+  </si>
+  <si>
+    <t>1286.64</t>
+  </si>
+  <si>
+    <t>1411.73</t>
+  </si>
+  <si>
+    <t>1250.9</t>
+  </si>
+  <si>
+    <t>1340.25</t>
+  </si>
+  <si>
+    <t>1358.12</t>
+  </si>
+  <si>
+    <t>1501.08</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1697.65</t>
+  </si>
+  <si>
+    <t>1679.78</t>
+  </si>
+  <si>
+    <t>1733.39</t>
+  </si>
+  <si>
+    <t>1706</t>
   </si>
   <si>
     <t>1720</t>
   </si>
   <si>
-    <t>1716</t>
-  </si>
-  <si>
-    <t>1661</t>
-  </si>
-  <si>
-    <t>1617</t>
-  </si>
-  <si>
-    <t>1585</t>
-  </si>
-  <si>
-    <t>1641</t>
-  </si>
-  <si>
-    <t>1630</t>
-  </si>
-  <si>
-    <t>1624</t>
-  </si>
-  <si>
-    <t>1654</t>
-  </si>
-  <si>
-    <t>1770</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1689</t>
-  </si>
-  <si>
-    <t>1548</t>
-  </si>
-  <si>
-    <t>1619</t>
-  </si>
-  <si>
-    <t>1736</t>
-  </si>
-  <si>
-    <t>1756</t>
-  </si>
-  <si>
-    <t>1786</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1833</t>
-  </si>
-  <si>
-    <t>1829</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1777</t>
-  </si>
-  <si>
-    <t>1851</t>
-  </si>
-  <si>
-    <t>1896</t>
-  </si>
-  <si>
-    <t>1957</t>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1892</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>1774</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1865</t>
   </si>
   <si>
     <t>1977</t>
   </si>
   <si>
-    <t>1895</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>2056</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2033</t>
-  </si>
-  <si>
-    <t>2113</t>
-  </si>
-  <si>
-    <t>2073</t>
-  </si>
-  <si>
-    <t>2045</t>
-  </si>
-  <si>
-    <t>2044</t>
-  </si>
-  <si>
-    <t>2177</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2284</t>
-  </si>
-  <si>
-    <t>2290</t>
-  </si>
-  <si>
-    <t>2331</t>
-  </si>
-  <si>
-    <t>2451</t>
-  </si>
-  <si>
-    <t>2417</t>
-  </si>
-  <si>
-    <t>2600</t>
-  </si>
-  <si>
-    <t>2584</t>
-  </si>
-  <si>
-    <t>2739</t>
-  </si>
-  <si>
-    <t>2620</t>
-  </si>
-  <si>
-    <t>2529</t>
-  </si>
-  <si>
-    <t>2559</t>
-  </si>
-  <si>
-    <t>2486</t>
-  </si>
-  <si>
-    <t>2556</t>
-  </si>
-  <si>
-    <t>2583</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1790</t>
-  </si>
-  <si>
-    <t>1915</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2126</t>
-  </si>
-  <si>
-    <t>2188</t>
-  </si>
-  <si>
-    <t>2271</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2179</t>
-  </si>
-  <si>
-    <t>2198</t>
-  </si>
-  <si>
-    <t>2186</t>
-  </si>
-  <si>
-    <t>2155</t>
-  </si>
-  <si>
-    <t>2189</t>
-  </si>
-  <si>
-    <t>2386</t>
-  </si>
-  <si>
-    <t>2558</t>
-  </si>
-  <si>
-    <t>2528</t>
-  </si>
-  <si>
-    <t>2696</t>
-  </si>
-  <si>
-    <t>2778</t>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>2246</t>
+  </si>
+  <si>
+    <t>2428</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>2601</t>
+  </si>
+  <si>
+    <t>2495</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>2520</t>
+  </si>
+  <si>
+    <t>2538</t>
+  </si>
+  <si>
+    <t>2547</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>2493</t>
+  </si>
+  <si>
+    <t>2436</t>
+  </si>
+  <si>
+    <t>2381</t>
+  </si>
+  <si>
+    <t>2475</t>
+  </si>
+  <si>
+    <t>2469</t>
+  </si>
+  <si>
+    <t>2463</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>2719</t>
+  </si>
+  <si>
+    <t>2603</t>
+  </si>
+  <si>
+    <t>2633</t>
+  </si>
+  <si>
+    <t>2589</t>
+  </si>
+  <si>
+    <t>2330</t>
+  </si>
+  <si>
+    <t>2628</t>
+  </si>
+  <si>
+    <t>2636</t>
+  </si>
+  <si>
+    <t>2676</t>
+  </si>
+  <si>
+    <t>2885</t>
+  </si>
+  <si>
+    <t>2740</t>
+  </si>
+  <si>
+    <t>2713</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>2622</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>2828</t>
+  </si>
+  <si>
+    <t>2917</t>
   </si>
   <si>
     <t>2978</t>
   </si>
   <si>
-    <t>3046</t>
-  </si>
-  <si>
-    <t>3150</t>
-  </si>
-  <si>
-    <t>3050</t>
-  </si>
-  <si>
-    <t>3072</t>
-  </si>
-  <si>
-    <t>3436</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
-    <t>4151</t>
-  </si>
-  <si>
-    <t>4515</t>
-  </si>
-  <si>
-    <t>4762</t>
-  </si>
-  <si>
-    <t>5060</t>
-  </si>
-  <si>
-    <t>5334</t>
-  </si>
-  <si>
-    <t>5588</t>
-  </si>
-  <si>
-    <t>6032</t>
-  </si>
-  <si>
-    <t>6319</t>
-  </si>
-  <si>
-    <t>6618</t>
-  </si>
-  <si>
-    <t>7099</t>
-  </si>
-  <si>
-    <t>7661</t>
-  </si>
-  <si>
-    <t>8149</t>
-  </si>
-  <si>
-    <t>8346</t>
-  </si>
-  <si>
-    <t>8599</t>
-  </si>
-  <si>
-    <t>8833</t>
-  </si>
-  <si>
-    <t>9023</t>
-  </si>
-  <si>
-    <t>9068</t>
-  </si>
-  <si>
-    <t>9203</t>
-  </si>
-  <si>
-    <t>9186</t>
-  </si>
-  <si>
-    <t>9293</t>
-  </si>
-  <si>
-    <t>9478</t>
-  </si>
-  <si>
-    <t>9571</t>
-  </si>
-  <si>
-    <t>9722</t>
-  </si>
-  <si>
-    <t>9998</t>
-  </si>
-  <si>
-    <t>10520</t>
-  </si>
-  <si>
-    <t>11046</t>
-  </si>
-  <si>
-    <t>11582</t>
-  </si>
-  <si>
-    <t>12054.8085844</t>
-  </si>
-  <si>
-    <t>12327.0617226</t>
-  </si>
-  <si>
-    <t>12412.9786716</t>
-  </si>
-  <si>
-    <t>12258.5119722</t>
-  </si>
-  <si>
-    <t>12528.4741971</t>
-  </si>
-  <si>
-    <t>13132.0899863</t>
-  </si>
-  <si>
-    <t>13423.0435232</t>
-  </si>
-  <si>
-    <t>13912.0580626</t>
-  </si>
-  <si>
-    <t>14483.2740267</t>
-  </si>
-  <si>
-    <t>15093.2485894</t>
-  </si>
-  <si>
-    <t>15723.5687009</t>
-  </si>
-  <si>
-    <t>16118.6969342</t>
-  </si>
-  <si>
-    <t>16319.8838798</t>
-  </si>
-  <si>
-    <t>16553.1871507</t>
-  </si>
-  <si>
-    <t>16822.7506595</t>
-  </si>
-  <si>
-    <t>17144.839063</t>
-  </si>
-  <si>
-    <t>17551.5855216</t>
-  </si>
-  <si>
-    <t>17848.943104</t>
-  </si>
-  <si>
-    <t>17734.0291529</t>
-  </si>
-  <si>
-    <t>16928.0226218</t>
-  </si>
-  <si>
-    <t>16797.4274695</t>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>2973</t>
+  </si>
+  <si>
+    <t>3076</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>3024</t>
+  </si>
+  <si>
+    <t>3244</t>
+  </si>
+  <si>
+    <t>3322</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>3433</t>
+  </si>
+  <si>
+    <t>3518</t>
+  </si>
+  <si>
+    <t>3725</t>
+  </si>
+  <si>
+    <t>3650</t>
+  </si>
+  <si>
+    <t>3959</t>
+  </si>
+  <si>
+    <t>3907</t>
+  </si>
+  <si>
+    <t>4173</t>
+  </si>
+  <si>
+    <t>3923</t>
+  </si>
+  <si>
+    <t>3787</t>
+  </si>
+  <si>
+    <t>3856</t>
+  </si>
+  <si>
+    <t>3690</t>
+  </si>
+  <si>
+    <t>3783</t>
+  </si>
+  <si>
+    <t>3806</t>
+  </si>
+  <si>
+    <t>2876</t>
+  </si>
+  <si>
+    <t>2654</t>
+  </si>
+  <si>
+    <t>3170</t>
+  </si>
+  <si>
+    <t>3191</t>
+  </si>
+  <si>
+    <t>3394</t>
+  </si>
+  <si>
+    <t>3551</t>
+  </si>
+  <si>
+    <t>3676</t>
+  </si>
+  <si>
+    <t>3357</t>
+  </si>
+  <si>
+    <t>3473</t>
+  </si>
+  <si>
+    <t>3513</t>
+  </si>
+  <si>
+    <t>3478</t>
+  </si>
+  <si>
+    <t>3435</t>
+  </si>
+  <si>
+    <t>3464</t>
+  </si>
+  <si>
+    <t>3790</t>
+  </si>
+  <si>
+    <t>4105</t>
+  </si>
+  <si>
+    <t>4066</t>
+  </si>
+  <si>
+    <t>4328</t>
+  </si>
+  <si>
+    <t>4442</t>
+  </si>
+  <si>
+    <t>4769</t>
+  </si>
+  <si>
+    <t>4900</t>
+  </si>
+  <si>
+    <t>5176</t>
+  </si>
+  <si>
+    <t>5085</t>
+  </si>
+  <si>
+    <t>5037</t>
+  </si>
+  <si>
+    <t>5587</t>
+  </si>
+  <si>
+    <t>6083</t>
+  </si>
+  <si>
+    <t>6639</t>
+  </si>
+  <si>
+    <t>6945</t>
+  </si>
+  <si>
+    <t>7420</t>
+  </si>
+  <si>
+    <t>7881</t>
+  </si>
+  <si>
+    <t>8215</t>
+  </si>
+  <si>
+    <t>8606</t>
+  </si>
+  <si>
+    <t>9307</t>
+  </si>
+  <si>
+    <t>9511</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>10796</t>
+  </si>
+  <si>
+    <t>11638</t>
+  </si>
+  <si>
+    <t>12388</t>
+  </si>
+  <si>
+    <t>12621</t>
+  </si>
+  <si>
+    <t>13053</t>
+  </si>
+  <si>
+    <t>13342</t>
+  </si>
+  <si>
+    <t>13573</t>
+  </si>
+  <si>
+    <t>13681</t>
+  </si>
+  <si>
+    <t>14008</t>
+  </si>
+  <si>
+    <t>13895</t>
+  </si>
+  <si>
+    <t>14045</t>
+  </si>
+  <si>
+    <t>14237</t>
+  </si>
+  <si>
+    <t>14308</t>
+  </si>
+  <si>
+    <t>14690</t>
+  </si>
+  <si>
+    <t>15237</t>
+  </si>
+  <si>
+    <t>16268</t>
+  </si>
+  <si>
+    <t>17272</t>
+  </si>
+  <si>
+    <t>18359</t>
+  </si>
+  <si>
+    <t>19215</t>
+  </si>
+  <si>
+    <t>19958.0596426948</t>
+  </si>
+  <si>
+    <t>20329.1677408367</t>
+  </si>
+  <si>
+    <t>20056.5396155114</t>
+  </si>
+  <si>
+    <t>20673.9544155358</t>
+  </si>
+  <si>
+    <t>21522.0967887257</t>
+  </si>
+  <si>
+    <t>22185.0667599765</t>
+  </si>
+  <si>
+    <t>23113.6150704598</t>
+  </si>
+  <si>
+    <t>24284.8613174619</t>
+  </si>
+  <si>
+    <t>25549.5396429093</t>
+  </si>
+  <si>
+    <t>26994.8601202917</t>
+  </si>
+  <si>
+    <t>28153.553612966</t>
+  </si>
+  <si>
+    <t>28753.3227520684</t>
+  </si>
+  <si>
+    <t>29371.8649278598</t>
+  </si>
+  <si>
+    <t>30088.0926352499</t>
+  </si>
+  <si>
+    <t>30885.6020395599</t>
+  </si>
+  <si>
+    <t>31907.4235097587</t>
+  </si>
+  <si>
+    <t>32735.4330979339</t>
+  </si>
+  <si>
+    <t>32844.326112024</t>
+  </si>
+  <si>
+    <t>31669.6906208215</t>
+  </si>
+  <si>
+    <t>31786.404048037</t>
+  </si>
+  <si>
+    <t>31600</t>
+  </si>
+  <si>
+    <t>30699</t>
+  </si>
+  <si>
+    <t>30280</t>
+  </si>
+  <si>
+    <t>30819</t>
+  </si>
+  <si>
+    <t>31847</t>
+  </si>
+  <si>
+    <t>30110</t>
   </si>
   <si>
     <t>Description</t>
@@ -652,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1500.0</v>
+        <v>1505.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -669,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1501.0</v>
+        <v>1506.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -686,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1502.0</v>
+        <v>1507.0</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -703,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1503.0</v>
+        <v>1508.0</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -720,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1504.0</v>
+        <v>1509.0</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -737,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1505.0</v>
+        <v>1510.0</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -754,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1506.0</v>
+        <v>1511.0</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -771,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1507.0</v>
+        <v>1512.0</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -788,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1508.0</v>
+        <v>1513.0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -805,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1509.0</v>
+        <v>1514.0</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -822,10 +861,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1510.0</v>
+        <v>1515.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -839,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1511.0</v>
+        <v>1516.0</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -856,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1512.0</v>
+        <v>1517.0</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -873,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1513.0</v>
+        <v>1518.0</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -890,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1514.0</v>
+        <v>1519.0</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -907,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1515.0</v>
+        <v>1520.0</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -924,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1516.0</v>
+        <v>1521.0</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -941,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1517.0</v>
+        <v>1522.0</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -958,7 +997,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1518.0</v>
+        <v>1523.0</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -975,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1519.0</v>
+        <v>1524.0</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -992,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1520.0</v>
+        <v>1525.0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1009,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1521.0</v>
+        <v>1526.0</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1026,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1522.0</v>
+        <v>1527.0</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1043,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1523.0</v>
+        <v>1528.0</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1060,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1524.0</v>
+        <v>1529.0</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1077,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1525.0</v>
+        <v>1530.0</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1094,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1526.0</v>
+        <v>1531.0</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1111,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1527.0</v>
+        <v>1532.0</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1128,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1528.0</v>
+        <v>1533.0</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1145,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1529.0</v>
+        <v>1534.0</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1162,10 +1201,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1530.0</v>
+        <v>1535.0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1179,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1531.0</v>
+        <v>1536.0</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1196,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1532.0</v>
+        <v>1537.0</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1213,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1533.0</v>
+        <v>1538.0</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1230,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1534.0</v>
+        <v>1539.0</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1247,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1535.0</v>
+        <v>1540.0</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1264,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1536.0</v>
+        <v>1541.0</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1281,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1537.0</v>
+        <v>1542.0</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1298,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1538.0</v>
+        <v>1543.0</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1315,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1539.0</v>
+        <v>1544.0</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1332,10 +1371,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1540.0</v>
+        <v>1545.0</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1349,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1541.0</v>
+        <v>1546.0</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1366,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1542.0</v>
+        <v>1547.0</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1383,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1543.0</v>
+        <v>1548.0</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1400,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1544.0</v>
+        <v>1549.0</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1417,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1545.0</v>
+        <v>1550.0</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1434,7 +1473,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1546.0</v>
+        <v>1551.0</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -1451,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1547.0</v>
+        <v>1552.0</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -1468,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1548.0</v>
+        <v>1553.0</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1485,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1549.0</v>
+        <v>1554.0</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -1502,10 +1541,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1550.0</v>
+        <v>1555.0</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -1519,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1551.0</v>
+        <v>1556.0</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -1536,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1552.0</v>
+        <v>1557.0</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -1553,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1553.0</v>
+        <v>1558.0</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1570,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1554.0</v>
+        <v>1559.0</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -1587,7 +1626,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1555.0</v>
+        <v>1560.0</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -1604,7 +1643,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1556.0</v>
+        <v>1561.0</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -1621,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1557.0</v>
+        <v>1562.0</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -1638,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1558.0</v>
+        <v>1563.0</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -1655,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1559.0</v>
+        <v>1564.0</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -1672,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1560.0</v>
+        <v>1565.0</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -1689,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1561.0</v>
+        <v>1566.0</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -1706,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1562.0</v>
+        <v>1567.0</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -1723,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1563.0</v>
+        <v>1568.0</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
@@ -1740,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1564.0</v>
+        <v>1569.0</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -1757,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1565.0</v>
+        <v>1570.0</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1774,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1566.0</v>
+        <v>1571.0</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -1791,7 +1830,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1567.0</v>
+        <v>1572.0</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -1808,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1568.0</v>
+        <v>1573.0</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -1825,7 +1864,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1569.0</v>
+        <v>1574.0</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -1842,10 +1881,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1570.0</v>
+        <v>1575.0</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -1859,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1571.0</v>
+        <v>1576.0</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -1876,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1572.0</v>
+        <v>1577.0</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -1893,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1573.0</v>
+        <v>1578.0</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -1910,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1574.0</v>
+        <v>1579.0</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -1927,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1575.0</v>
+        <v>1580.0</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -1944,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1576.0</v>
+        <v>1581.0</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -1961,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1577.0</v>
+        <v>1582.0</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -1978,7 +2017,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1578.0</v>
+        <v>1583.0</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -1995,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1579.0</v>
+        <v>1584.0</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -2012,10 +2051,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1580.0</v>
+        <v>1585.0</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -2029,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1581.0</v>
+        <v>1586.0</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -2046,7 +2085,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1582.0</v>
+        <v>1587.0</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -2063,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1583.0</v>
+        <v>1588.0</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -2080,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1584.0</v>
+        <v>1589.0</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -2097,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1585.0</v>
+        <v>1590.0</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2114,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1586.0</v>
+        <v>1591.0</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -2131,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1587.0</v>
+        <v>1592.0</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -2148,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1588.0</v>
+        <v>1593.0</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2165,7 +2204,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1589.0</v>
+        <v>1594.0</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -2182,10 +2221,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1590.0</v>
+        <v>1595.0</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -2199,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1591.0</v>
+        <v>1596.0</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -2216,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1592.0</v>
+        <v>1597.0</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -2233,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1593.0</v>
+        <v>1598.0</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -2250,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1594.0</v>
+        <v>1599.0</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -2267,7 +2306,7 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1595.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -2284,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1596.0</v>
+        <v>1601.0</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -2301,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1597.0</v>
+        <v>1602.0</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -2318,7 +2357,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1598.0</v>
+        <v>1603.0</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -2335,7 +2374,7 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1599.0</v>
+        <v>1604.0</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2352,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1600.0</v>
+        <v>1605.0</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -2369,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1601.0</v>
+        <v>1606.0</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -2386,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1602.0</v>
+        <v>1607.0</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -2403,7 +2442,7 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1603.0</v>
+        <v>1608.0</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -2420,7 +2459,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1604.0</v>
+        <v>1609.0</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -2437,7 +2476,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1605.0</v>
+        <v>1610.0</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -2454,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1606.0</v>
+        <v>1611.0</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -2471,7 +2510,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1607.0</v>
+        <v>1612.0</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -2488,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1608.0</v>
+        <v>1613.0</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -2505,7 +2544,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1609.0</v>
+        <v>1614.0</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -2522,10 +2561,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1610.0</v>
+        <v>1615.0</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
@@ -2539,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1611.0</v>
+        <v>1616.0</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -2556,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1612.0</v>
+        <v>1617.0</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -2573,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1613.0</v>
+        <v>1618.0</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -2590,7 +2629,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1614.0</v>
+        <v>1619.0</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -2607,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1615.0</v>
+        <v>1620.0</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -2624,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1616.0</v>
+        <v>1621.0</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -2641,7 +2680,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1617.0</v>
+        <v>1622.0</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -2658,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1618.0</v>
+        <v>1623.0</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -2675,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1619.0</v>
+        <v>1624.0</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -2692,10 +2731,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1620.0</v>
+        <v>1625.0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2709,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1621.0</v>
+        <v>1626.0</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -2726,7 +2765,7 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1622.0</v>
+        <v>1627.0</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -2743,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1623.0</v>
+        <v>1628.0</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -2760,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1624.0</v>
+        <v>1629.0</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -2777,7 +2816,7 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1625.0</v>
+        <v>1630.0</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -2794,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1626.0</v>
+        <v>1631.0</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -2811,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1627.0</v>
+        <v>1632.0</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -2828,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1628.0</v>
+        <v>1633.0</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -2845,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1629.0</v>
+        <v>1634.0</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -2862,10 +2901,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1630.0</v>
+        <v>1635.0</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
@@ -2879,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1631.0</v>
+        <v>1636.0</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -2896,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1632.0</v>
+        <v>1637.0</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -2913,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1633.0</v>
+        <v>1638.0</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
@@ -2930,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1634.0</v>
+        <v>1639.0</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -2947,7 +2986,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1635.0</v>
+        <v>1640.0</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -2964,7 +3003,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1636.0</v>
+        <v>1641.0</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -2981,7 +3020,7 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1637.0</v>
+        <v>1642.0</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -2998,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1638.0</v>
+        <v>1643.0</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3015,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1639.0</v>
+        <v>1644.0</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -3032,10 +3071,10 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1640.0</v>
+        <v>1645.0</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
@@ -3049,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1641.0</v>
+        <v>1646.0</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -3066,7 +3105,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1642.0</v>
+        <v>1647.0</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -3083,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1643.0</v>
+        <v>1648.0</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -3100,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1644.0</v>
+        <v>1649.0</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -3117,7 +3156,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1645.0</v>
+        <v>1650.0</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -3134,7 +3173,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1646.0</v>
+        <v>1651.0</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -3151,7 +3190,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1647.0</v>
+        <v>1652.0</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -3168,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1648.0</v>
+        <v>1653.0</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
@@ -3185,7 +3224,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1649.0</v>
+        <v>1654.0</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -3202,10 +3241,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1650.0</v>
+        <v>1655.0</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
@@ -3219,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1651.0</v>
+        <v>1656.0</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -3236,7 +3275,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1652.0</v>
+        <v>1657.0</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -3253,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1653.0</v>
+        <v>1658.0</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -3270,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1654.0</v>
+        <v>1659.0</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
@@ -3287,7 +3326,7 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1655.0</v>
+        <v>1660.0</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -3304,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1656.0</v>
+        <v>1661.0</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -3321,7 +3360,7 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1657.0</v>
+        <v>1662.0</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -3338,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1658.0</v>
+        <v>1663.0</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
@@ -3355,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1659.0</v>
+        <v>1664.0</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
@@ -3372,10 +3411,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1660.0</v>
+        <v>1665.0</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -3389,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1661.0</v>
+        <v>1666.0</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -3406,7 +3445,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1662.0</v>
+        <v>1667.0</v>
       </c>
       <c r="E164" t="s">
         <v>8</v>
@@ -3423,7 +3462,7 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1663.0</v>
+        <v>1668.0</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -3440,7 +3479,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1664.0</v>
+        <v>1669.0</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
@@ -3457,7 +3496,7 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1665.0</v>
+        <v>1670.0</v>
       </c>
       <c r="E167" t="s">
         <v>8</v>
@@ -3474,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1666.0</v>
+        <v>1671.0</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -3491,7 +3530,7 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1667.0</v>
+        <v>1672.0</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -3508,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1668.0</v>
+        <v>1673.0</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -3525,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1669.0</v>
+        <v>1674.0</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -3542,10 +3581,10 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1670.0</v>
+        <v>1675.0</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173">
@@ -3559,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1671.0</v>
+        <v>1676.0</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -3576,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1672.0</v>
+        <v>1677.0</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -3593,7 +3632,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1673.0</v>
+        <v>1678.0</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -3610,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1674.0</v>
+        <v>1679.0</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
@@ -3627,7 +3666,7 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1675.0</v>
+        <v>1680.0</v>
       </c>
       <c r="E177" t="s">
         <v>8</v>
@@ -3644,7 +3683,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1676.0</v>
+        <v>1681.0</v>
       </c>
       <c r="E178" t="s">
         <v>8</v>
@@ -3661,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1677.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E179" t="s">
         <v>8</v>
@@ -3678,7 +3717,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1678.0</v>
+        <v>1683.0</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -3695,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1679.0</v>
+        <v>1684.0</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -3712,10 +3751,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1680.0</v>
+        <v>1685.0</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183">
@@ -3729,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1681.0</v>
+        <v>1686.0</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -3746,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>1682.0</v>
+        <v>1687.0</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -3763,7 +3802,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1683.0</v>
+        <v>1688.0</v>
       </c>
       <c r="E185" t="s">
         <v>8</v>
@@ -3780,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1684.0</v>
+        <v>1689.0</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -3797,7 +3836,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1685.0</v>
+        <v>1690.0</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -3814,7 +3853,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1686.0</v>
+        <v>1691.0</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
@@ -3831,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1687.0</v>
+        <v>1692.0</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -3848,7 +3887,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1688.0</v>
+        <v>1693.0</v>
       </c>
       <c r="E190" t="s">
         <v>8</v>
@@ -3865,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1689.0</v>
+        <v>1694.0</v>
       </c>
       <c r="E191" t="s">
         <v>8</v>
@@ -3882,10 +3921,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1690.0</v>
+        <v>1695.0</v>
       </c>
       <c r="E192" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193">
@@ -3899,7 +3938,7 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1691.0</v>
+        <v>1696.0</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -3916,7 +3955,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1692.0</v>
+        <v>1697.0</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -3933,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1693.0</v>
+        <v>1698.0</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
@@ -3950,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1694.0</v>
+        <v>1699.0</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
@@ -3967,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1695.0</v>
+        <v>1700.0</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
@@ -3984,7 +4023,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>1696.0</v>
+        <v>1701.0</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -4001,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1697.0</v>
+        <v>1702.0</v>
       </c>
       <c r="E199" t="s">
         <v>8</v>
@@ -4018,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1698.0</v>
+        <v>1703.0</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
@@ -4035,7 +4074,7 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1699.0</v>
+        <v>1704.0</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
@@ -4052,10 +4091,10 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>1700.0</v>
+        <v>1705.0</v>
       </c>
       <c r="E202" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
@@ -4069,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>1701.0</v>
+        <v>1706.0</v>
       </c>
       <c r="E203" t="s">
         <v>8</v>
@@ -4086,7 +4125,7 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>1702.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
@@ -4103,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>1703.0</v>
+        <v>1708.0</v>
       </c>
       <c r="E205" t="s">
         <v>8</v>
@@ -4120,7 +4159,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1704.0</v>
+        <v>1709.0</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
@@ -4137,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>1705.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
@@ -4154,7 +4193,7 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1706.0</v>
+        <v>1711.0</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
@@ -4171,7 +4210,7 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1707.0</v>
+        <v>1712.0</v>
       </c>
       <c r="E209" t="s">
         <v>8</v>
@@ -4188,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>1708.0</v>
+        <v>1713.0</v>
       </c>
       <c r="E210" t="s">
         <v>8</v>
@@ -4205,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>1709.0</v>
+        <v>1714.0</v>
       </c>
       <c r="E211" t="s">
         <v>8</v>
@@ -4222,10 +4261,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1710.0</v>
+        <v>1715.0</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
@@ -4239,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>1711.0</v>
+        <v>1716.0</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
@@ -4256,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1712.0</v>
+        <v>1717.0</v>
       </c>
       <c r="E214" t="s">
         <v>8</v>
@@ -4273,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>1713.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E215" t="s">
         <v>8</v>
@@ -4290,7 +4329,7 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>1714.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E216" t="s">
         <v>8</v>
@@ -4307,7 +4346,7 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>1715.0</v>
+        <v>1720.0</v>
       </c>
       <c r="E217" t="s">
         <v>8</v>
@@ -4324,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>1716.0</v>
+        <v>1721.0</v>
       </c>
       <c r="E218" t="s">
         <v>8</v>
@@ -4341,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>1717.0</v>
+        <v>1722.0</v>
       </c>
       <c r="E219" t="s">
         <v>8</v>
@@ -4358,7 +4397,7 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>1718.0</v>
+        <v>1723.0</v>
       </c>
       <c r="E220" t="s">
         <v>8</v>
@@ -4375,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>1719.0</v>
+        <v>1724.0</v>
       </c>
       <c r="E221" t="s">
         <v>8</v>
@@ -4392,10 +4431,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>1720.0</v>
+        <v>1725.0</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -4409,7 +4448,7 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>1721.0</v>
+        <v>1726.0</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -4426,7 +4465,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1722.0</v>
+        <v>1727.0</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
@@ -4443,7 +4482,7 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>1723.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E225" t="s">
         <v>8</v>
@@ -4460,7 +4499,7 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>1724.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -4477,7 +4516,7 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1725.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E227" t="s">
         <v>8</v>
@@ -4494,7 +4533,7 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>1726.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E228" t="s">
         <v>8</v>
@@ -4511,7 +4550,7 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1727.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E229" t="s">
         <v>8</v>
@@ -4528,7 +4567,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>1728.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E230" t="s">
         <v>8</v>
@@ -4545,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>1729.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E231" t="s">
         <v>8</v>
@@ -4562,10 +4601,10 @@
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1730.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
@@ -4579,7 +4618,7 @@
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>1731.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E233" t="s">
         <v>8</v>
@@ -4596,7 +4635,7 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>1732.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E234" t="s">
         <v>8</v>
@@ -4613,7 +4652,7 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>1733.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E235" t="s">
         <v>8</v>
@@ -4630,7 +4669,7 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>1734.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
@@ -4647,7 +4686,7 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>1735.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E237" t="s">
         <v>8</v>
@@ -4664,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>1736.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E238" t="s">
         <v>8</v>
@@ -4681,7 +4720,7 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>1737.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E239" t="s">
         <v>8</v>
@@ -4698,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>1738.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E240" t="s">
         <v>8</v>
@@ -4715,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>1739.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E241" t="s">
         <v>8</v>
@@ -4732,10 +4771,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>1740.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243">
@@ -4749,7 +4788,7 @@
         <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>1741.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E243" t="s">
         <v>8</v>
@@ -4766,7 +4805,7 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>1742.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E244" t="s">
         <v>8</v>
@@ -4783,7 +4822,7 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>1743.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
@@ -4800,7 +4839,7 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>1744.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E246" t="s">
         <v>8</v>
@@ -4817,7 +4856,7 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>1745.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E247" t="s">
         <v>8</v>
@@ -4834,7 +4873,7 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>1746.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E248" t="s">
         <v>8</v>
@@ -4851,7 +4890,7 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>1747.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E249" t="s">
         <v>8</v>
@@ -4868,7 +4907,7 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>1748.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E250" t="s">
         <v>8</v>
@@ -4885,7 +4924,7 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>1749.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E251" t="s">
         <v>8</v>
@@ -4902,10 +4941,10 @@
         <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>1750.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E252" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253">
@@ -4919,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>1751.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
@@ -4936,7 +4975,7 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>1752.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E254" t="s">
         <v>8</v>
@@ -4953,7 +4992,7 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>1753.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -4970,7 +5009,7 @@
         <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>1754.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E256" t="s">
         <v>8</v>
@@ -4987,7 +5026,7 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>1755.0</v>
+        <v>1760.0</v>
       </c>
       <c r="E257" t="s">
         <v>8</v>
@@ -5004,7 +5043,7 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>1756.0</v>
+        <v>1761.0</v>
       </c>
       <c r="E258" t="s">
         <v>8</v>
@@ -5021,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>1757.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E259" t="s">
         <v>8</v>
@@ -5038,7 +5077,7 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>1758.0</v>
+        <v>1763.0</v>
       </c>
       <c r="E260" t="s">
         <v>8</v>
@@ -5055,7 +5094,7 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>1759.0</v>
+        <v>1764.0</v>
       </c>
       <c r="E261" t="s">
         <v>8</v>
@@ -5072,10 +5111,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>1760.0</v>
+        <v>1765.0</v>
       </c>
       <c r="E262" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263">
@@ -5089,7 +5128,7 @@
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>1761.0</v>
+        <v>1766.0</v>
       </c>
       <c r="E263" t="s">
         <v>8</v>
@@ -5106,7 +5145,7 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>1762.0</v>
+        <v>1767.0</v>
       </c>
       <c r="E264" t="s">
         <v>8</v>
@@ -5123,7 +5162,7 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>1763.0</v>
+        <v>1768.0</v>
       </c>
       <c r="E265" t="s">
         <v>8</v>
@@ -5140,7 +5179,7 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>1764.0</v>
+        <v>1769.0</v>
       </c>
       <c r="E266" t="s">
         <v>8</v>
@@ -5157,7 +5196,7 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>1765.0</v>
+        <v>1770.0</v>
       </c>
       <c r="E267" t="s">
         <v>8</v>
@@ -5174,7 +5213,7 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>1766.0</v>
+        <v>1771.0</v>
       </c>
       <c r="E268" t="s">
         <v>8</v>
@@ -5191,7 +5230,7 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>1767.0</v>
+        <v>1772.0</v>
       </c>
       <c r="E269" t="s">
         <v>8</v>
@@ -5208,7 +5247,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>1768.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E270" t="s">
         <v>8</v>
@@ -5225,7 +5264,7 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>1769.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E271" t="s">
         <v>8</v>
@@ -5242,10 +5281,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>1770.0</v>
+        <v>1775.0</v>
       </c>
       <c r="E272" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
@@ -5259,7 +5298,7 @@
         <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>1771.0</v>
+        <v>1776.0</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -5276,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>1772.0</v>
+        <v>1777.0</v>
       </c>
       <c r="E274" t="s">
         <v>8</v>
@@ -5293,7 +5332,7 @@
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1773.0</v>
+        <v>1778.0</v>
       </c>
       <c r="E275" t="s">
         <v>8</v>
@@ -5310,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>1774.0</v>
+        <v>1779.0</v>
       </c>
       <c r="E276" t="s">
         <v>8</v>
@@ -5327,7 +5366,7 @@
         <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1775.0</v>
+        <v>1780.0</v>
       </c>
       <c r="E277" t="s">
         <v>8</v>
@@ -5344,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>1776.0</v>
+        <v>1781.0</v>
       </c>
       <c r="E278" t="s">
         <v>8</v>
@@ -5361,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>1777.0</v>
+        <v>1782.0</v>
       </c>
       <c r="E279" t="s">
         <v>8</v>
@@ -5378,7 +5417,7 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1778.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E280" t="s">
         <v>8</v>
@@ -5395,7 +5434,7 @@
         <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1779.0</v>
+        <v>1784.0</v>
       </c>
       <c r="E281" t="s">
         <v>8</v>
@@ -5412,10 +5451,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1780.0</v>
+        <v>1785.0</v>
       </c>
       <c r="E282" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283">
@@ -5429,7 +5468,7 @@
         <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>1781.0</v>
+        <v>1786.0</v>
       </c>
       <c r="E283" t="s">
         <v>8</v>
@@ -5446,7 +5485,7 @@
         <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1782.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E284" t="s">
         <v>8</v>
@@ -5463,7 +5502,7 @@
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1783.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E285" t="s">
         <v>8</v>
@@ -5480,7 +5519,7 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1784.0</v>
+        <v>1789.0</v>
       </c>
       <c r="E286" t="s">
         <v>8</v>
@@ -5497,7 +5536,7 @@
         <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1785.0</v>
+        <v>1790.0</v>
       </c>
       <c r="E287" t="s">
         <v>8</v>
@@ -5514,7 +5553,7 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>1786.0</v>
+        <v>1791.0</v>
       </c>
       <c r="E288" t="s">
         <v>8</v>
@@ -5531,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>1787.0</v>
+        <v>1792.0</v>
       </c>
       <c r="E289" t="s">
         <v>8</v>
@@ -5548,7 +5587,7 @@
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>1788.0</v>
+        <v>1793.0</v>
       </c>
       <c r="E290" t="s">
         <v>8</v>
@@ -5565,7 +5604,7 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>1789.0</v>
+        <v>1794.0</v>
       </c>
       <c r="E291" t="s">
         <v>8</v>
@@ -5582,10 +5621,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>1790.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E292" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -5599,7 +5638,7 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>1791.0</v>
+        <v>1796.0</v>
       </c>
       <c r="E293" t="s">
         <v>8</v>
@@ -5616,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>1792.0</v>
+        <v>1797.0</v>
       </c>
       <c r="E294" t="s">
         <v>8</v>
@@ -5633,7 +5672,7 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>1793.0</v>
+        <v>1798.0</v>
       </c>
       <c r="E295" t="s">
         <v>8</v>
@@ -5650,7 +5689,7 @@
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>1794.0</v>
+        <v>1799.0</v>
       </c>
       <c r="E296" t="s">
         <v>8</v>
@@ -5667,7 +5706,7 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>1795.0</v>
+        <v>1800.0</v>
       </c>
       <c r="E297" t="s">
         <v>8</v>
@@ -5684,7 +5723,7 @@
         <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>1796.0</v>
+        <v>1801.0</v>
       </c>
       <c r="E298" t="s">
         <v>8</v>
@@ -5701,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>1797.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -5718,7 +5757,7 @@
         <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>1798.0</v>
+        <v>1803.0</v>
       </c>
       <c r="E300" t="s">
         <v>8</v>
@@ -5735,7 +5774,7 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>1799.0</v>
+        <v>1804.0</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -5752,10 +5791,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>1800.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E302" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303">
@@ -5769,7 +5808,7 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>1801.0</v>
+        <v>1806.0</v>
       </c>
       <c r="E303" t="s">
         <v>8</v>
@@ -5786,7 +5825,7 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>1802.0</v>
+        <v>1807.0</v>
       </c>
       <c r="E304" t="s">
         <v>8</v>
@@ -5803,7 +5842,7 @@
         <v>6</v>
       </c>
       <c r="D305" t="n">
-        <v>1803.0</v>
+        <v>1808.0</v>
       </c>
       <c r="E305" t="s">
         <v>8</v>
@@ -5820,7 +5859,7 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>1804.0</v>
+        <v>1809.0</v>
       </c>
       <c r="E306" t="s">
         <v>8</v>
@@ -5837,7 +5876,7 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>1805.0</v>
+        <v>1810.0</v>
       </c>
       <c r="E307" t="s">
         <v>8</v>
@@ -5854,7 +5893,7 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>1806.0</v>
+        <v>1811.0</v>
       </c>
       <c r="E308" t="s">
         <v>8</v>
@@ -5871,7 +5910,7 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>1807.0</v>
+        <v>1812.0</v>
       </c>
       <c r="E309" t="s">
         <v>8</v>
@@ -5888,7 +5927,7 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>1808.0</v>
+        <v>1813.0</v>
       </c>
       <c r="E310" t="s">
         <v>8</v>
@@ -5905,7 +5944,7 @@
         <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>1809.0</v>
+        <v>1814.0</v>
       </c>
       <c r="E311" t="s">
         <v>8</v>
@@ -5922,10 +5961,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>1810.0</v>
+        <v>1815.0</v>
       </c>
       <c r="E312" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313">
@@ -5939,7 +5978,7 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>1811.0</v>
+        <v>1816.0</v>
       </c>
       <c r="E313" t="s">
         <v>8</v>
@@ -5956,7 +5995,7 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>1812.0</v>
+        <v>1817.0</v>
       </c>
       <c r="E314" t="s">
         <v>8</v>
@@ -5973,7 +6012,7 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>1813.0</v>
+        <v>1818.0</v>
       </c>
       <c r="E315" t="s">
         <v>8</v>
@@ -5990,7 +6029,7 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>1814.0</v>
+        <v>1819.0</v>
       </c>
       <c r="E316" t="s">
         <v>8</v>
@@ -6007,10 +6046,10 @@
         <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>1815.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E317" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="318">
@@ -6024,7 +6063,7 @@
         <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>1816.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E318" t="s">
         <v>8</v>
@@ -6041,7 +6080,7 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>1817.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
@@ -6058,7 +6097,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>1818.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E320" t="s">
         <v>8</v>
@@ -6075,7 +6114,7 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>1819.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E321" t="s">
         <v>8</v>
@@ -6092,10 +6131,10 @@
         <v>6</v>
       </c>
       <c r="D322" t="n">
-        <v>1820.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E322" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323">
@@ -6109,7 +6148,7 @@
         <v>6</v>
       </c>
       <c r="D323" t="n">
-        <v>1821.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E323" t="s">
         <v>8</v>
@@ -6126,7 +6165,7 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>1822.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E324" t="s">
         <v>8</v>
@@ -6143,7 +6182,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>1823.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E325" t="s">
         <v>8</v>
@@ -6160,7 +6199,7 @@
         <v>6</v>
       </c>
       <c r="D326" t="n">
-        <v>1824.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E326" t="s">
         <v>8</v>
@@ -6177,7 +6216,7 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>1825.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E327" t="s">
         <v>8</v>
@@ -6194,7 +6233,7 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>1826.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E328" t="s">
         <v>8</v>
@@ -6211,7 +6250,7 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>1827.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -6228,7 +6267,7 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>1828.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E330" t="s">
         <v>8</v>
@@ -6245,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>1829.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E331" t="s">
         <v>8</v>
@@ -6262,10 +6301,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>1830.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E332" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333">
@@ -6279,7 +6318,7 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>1831.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E333" t="s">
         <v>8</v>
@@ -6296,7 +6335,7 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>1832.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E334" t="s">
         <v>8</v>
@@ -6313,7 +6352,7 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>1833.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E335" t="s">
         <v>8</v>
@@ -6330,7 +6369,7 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>1834.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E336" t="s">
         <v>8</v>
@@ -6347,7 +6386,7 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>1835.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E337" t="s">
         <v>8</v>
@@ -6364,7 +6403,7 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>1836.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E338" t="s">
         <v>8</v>
@@ -6381,7 +6420,7 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>1837.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E339" t="s">
         <v>8</v>
@@ -6398,7 +6437,7 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>1838.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E340" t="s">
         <v>8</v>
@@ -6415,7 +6454,7 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>1839.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E341" t="s">
         <v>8</v>
@@ -6432,10 +6471,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>1840.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E342" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="343">
@@ -6449,7 +6488,7 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>1841.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E343" t="s">
         <v>8</v>
@@ -6466,7 +6505,7 @@
         <v>6</v>
       </c>
       <c r="D344" t="n">
-        <v>1842.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -6483,7 +6522,7 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>1843.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
@@ -6500,7 +6539,7 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>1844.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
@@ -6517,10 +6556,10 @@
         <v>6</v>
       </c>
       <c r="D347" t="n">
-        <v>1845.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E347" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="348">
@@ -6534,10 +6573,10 @@
         <v>6</v>
       </c>
       <c r="D348" t="n">
-        <v>1846.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E348" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="349">
@@ -6551,10 +6590,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>1847.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E349" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="350">
@@ -6568,10 +6607,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>1848.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E350" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="351">
@@ -6585,10 +6624,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>1849.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E351" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352">
@@ -6602,10 +6641,10 @@
         <v>6</v>
       </c>
       <c r="D352" t="n">
-        <v>1850.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E352" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="353">
@@ -6619,10 +6658,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>1851.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E353" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="354">
@@ -6636,10 +6675,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>1852.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E354" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="355">
@@ -6653,10 +6692,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>1853.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E355" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="356">
@@ -6670,10 +6709,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>1854.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E356" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="357">
@@ -6687,10 +6726,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>1855.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E357" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="358">
@@ -6704,10 +6743,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>1856.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E358" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="359">
@@ -6721,10 +6760,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>1857.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E359" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="360">
@@ -6738,10 +6777,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>1858.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E360" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="361">
@@ -6755,10 +6794,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>1859.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E361" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="362">
@@ -6772,10 +6811,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>1860.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E362" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="363">
@@ -6789,10 +6828,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>1861.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E363" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="364">
@@ -6806,10 +6845,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>1862.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E364" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="365">
@@ -6823,10 +6862,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>1863.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E365" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="366">
@@ -6840,10 +6879,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>1864.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E366" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="367">
@@ -6857,10 +6896,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>1865.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E367" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="368">
@@ -6874,10 +6913,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>1866.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E368" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="369">
@@ -6891,10 +6930,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>1867.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E369" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="370">
@@ -6908,10 +6947,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>1868.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E370" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="371">
@@ -6925,10 +6964,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>1869.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E371" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="372">
@@ -6942,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>1870.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E372" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="373">
@@ -6959,10 +6998,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>1871.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E373" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="374">
@@ -6976,10 +7015,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>1872.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E374" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="375">
@@ -6993,10 +7032,10 @@
         <v>6</v>
       </c>
       <c r="D375" t="n">
-        <v>1873.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E375" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="376">
@@ -7010,10 +7049,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>1874.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E376" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="377">
@@ -7027,10 +7066,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>1875.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E377" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="378">
@@ -7044,10 +7083,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>1876.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E378" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="379">
@@ -7061,10 +7100,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>1877.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E379" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="380">
@@ -7078,10 +7117,10 @@
         <v>6</v>
       </c>
       <c r="D380" t="n">
-        <v>1878.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E380" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="381">
@@ -7095,10 +7134,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>1879.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E381" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="382">
@@ -7112,10 +7151,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>1880.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E382" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="383">
@@ -7129,10 +7168,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>1881.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E383" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="384">
@@ -7146,10 +7185,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>1882.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E384" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="385">
@@ -7163,10 +7202,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>1883.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E385" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="386">
@@ -7180,10 +7219,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>1884.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E386" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="387">
@@ -7197,10 +7236,10 @@
         <v>6</v>
       </c>
       <c r="D387" t="n">
-        <v>1885.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E387" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="388">
@@ -7214,10 +7253,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>1886.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E388" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="389">
@@ -7231,10 +7270,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>1887.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E389" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="390">
@@ -7248,10 +7287,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>1888.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E390" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="391">
@@ -7265,10 +7304,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>1889.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E391" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="392">
@@ -7282,10 +7321,10 @@
         <v>6</v>
       </c>
       <c r="D392" t="n">
-        <v>1890.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E392" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="393">
@@ -7299,10 +7338,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>1891.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E393" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="394">
@@ -7316,10 +7355,10 @@
         <v>6</v>
       </c>
       <c r="D394" t="n">
-        <v>1892.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E394" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="395">
@@ -7333,10 +7372,10 @@
         <v>6</v>
       </c>
       <c r="D395" t="n">
-        <v>1893.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E395" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="396">
@@ -7350,10 +7389,10 @@
         <v>6</v>
       </c>
       <c r="D396" t="n">
-        <v>1894.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E396" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="397">
@@ -7367,10 +7406,10 @@
         <v>6</v>
       </c>
       <c r="D397" t="n">
-        <v>1895.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E397" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="398">
@@ -7384,10 +7423,10 @@
         <v>6</v>
       </c>
       <c r="D398" t="n">
-        <v>1896.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E398" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="399">
@@ -7401,10 +7440,10 @@
         <v>6</v>
       </c>
       <c r="D399" t="n">
-        <v>1897.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E399" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="400">
@@ -7418,10 +7457,10 @@
         <v>6</v>
       </c>
       <c r="D400" t="n">
-        <v>1898.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E400" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="401">
@@ -7435,10 +7474,10 @@
         <v>6</v>
       </c>
       <c r="D401" t="n">
-        <v>1899.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E401" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="402">
@@ -7452,10 +7491,10 @@
         <v>6</v>
       </c>
       <c r="D402" t="n">
-        <v>1900.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E402" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="403">
@@ -7469,10 +7508,10 @@
         <v>6</v>
       </c>
       <c r="D403" t="n">
-        <v>1901.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E403" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="404">
@@ -7486,10 +7525,10 @@
         <v>6</v>
       </c>
       <c r="D404" t="n">
-        <v>1902.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E404" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="405">
@@ -7503,10 +7542,10 @@
         <v>6</v>
       </c>
       <c r="D405" t="n">
-        <v>1903.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E405" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="406">
@@ -7520,10 +7559,10 @@
         <v>6</v>
       </c>
       <c r="D406" t="n">
-        <v>1904.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E406" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="407">
@@ -7537,10 +7576,10 @@
         <v>6</v>
       </c>
       <c r="D407" t="n">
-        <v>1905.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E407" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="408">
@@ -7554,10 +7593,10 @@
         <v>6</v>
       </c>
       <c r="D408" t="n">
-        <v>1906.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E408" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="409">
@@ -7571,10 +7610,10 @@
         <v>6</v>
       </c>
       <c r="D409" t="n">
-        <v>1907.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E409" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="410">
@@ -7588,10 +7627,10 @@
         <v>6</v>
       </c>
       <c r="D410" t="n">
-        <v>1908.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E410" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="411">
@@ -7605,10 +7644,10 @@
         <v>6</v>
       </c>
       <c r="D411" t="n">
-        <v>1909.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E411" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="412">
@@ -7622,10 +7661,10 @@
         <v>6</v>
       </c>
       <c r="D412" t="n">
-        <v>1910.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E412" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="413">
@@ -7639,10 +7678,10 @@
         <v>6</v>
       </c>
       <c r="D413" t="n">
-        <v>1911.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E413" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="414">
@@ -7656,10 +7695,10 @@
         <v>6</v>
       </c>
       <c r="D414" t="n">
-        <v>1912.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E414" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="415">
@@ -7673,10 +7712,10 @@
         <v>6</v>
       </c>
       <c r="D415" t="n">
-        <v>1913.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E415" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="416">
@@ -7690,10 +7729,10 @@
         <v>6</v>
       </c>
       <c r="D416" t="n">
-        <v>1914.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E416" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="417">
@@ -7707,10 +7746,10 @@
         <v>6</v>
       </c>
       <c r="D417" t="n">
-        <v>1915.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E417" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="418">
@@ -7724,10 +7763,10 @@
         <v>6</v>
       </c>
       <c r="D418" t="n">
-        <v>1916.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E418" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="419">
@@ -7741,10 +7780,10 @@
         <v>6</v>
       </c>
       <c r="D419" t="n">
-        <v>1917.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E419" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="420">
@@ -7758,10 +7797,10 @@
         <v>6</v>
       </c>
       <c r="D420" t="n">
-        <v>1918.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E420" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="421">
@@ -7775,10 +7814,10 @@
         <v>6</v>
       </c>
       <c r="D421" t="n">
-        <v>1919.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E421" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="422">
@@ -7792,10 +7831,10 @@
         <v>6</v>
       </c>
       <c r="D422" t="n">
-        <v>1920.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E422" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="423">
@@ -7809,10 +7848,10 @@
         <v>6</v>
       </c>
       <c r="D423" t="n">
-        <v>1921.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E423" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="424">
@@ -7826,10 +7865,10 @@
         <v>6</v>
       </c>
       <c r="D424" t="n">
-        <v>1922.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E424" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="425">
@@ -7843,10 +7882,10 @@
         <v>6</v>
       </c>
       <c r="D425" t="n">
-        <v>1923.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E425" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="426">
@@ -7860,10 +7899,10 @@
         <v>6</v>
       </c>
       <c r="D426" t="n">
-        <v>1924.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E426" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="427">
@@ -7877,10 +7916,10 @@
         <v>6</v>
       </c>
       <c r="D427" t="n">
-        <v>1925.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E427" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="428">
@@ -7894,10 +7933,10 @@
         <v>6</v>
       </c>
       <c r="D428" t="n">
-        <v>1926.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E428" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="429">
@@ -7911,10 +7950,10 @@
         <v>6</v>
       </c>
       <c r="D429" t="n">
-        <v>1927.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E429" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="430">
@@ -7928,10 +7967,10 @@
         <v>6</v>
       </c>
       <c r="D430" t="n">
-        <v>1928.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E430" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="431">
@@ -7945,10 +7984,10 @@
         <v>6</v>
       </c>
       <c r="D431" t="n">
-        <v>1929.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E431" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="432">
@@ -7962,10 +8001,10 @@
         <v>6</v>
       </c>
       <c r="D432" t="n">
-        <v>1930.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E432" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="433">
@@ -7979,10 +8018,10 @@
         <v>6</v>
       </c>
       <c r="D433" t="n">
-        <v>1931.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E433" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="434">
@@ -7996,10 +8035,10 @@
         <v>6</v>
       </c>
       <c r="D434" t="n">
-        <v>1932.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E434" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="435">
@@ -8013,10 +8052,10 @@
         <v>6</v>
       </c>
       <c r="D435" t="n">
-        <v>1933.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E435" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="436">
@@ -8030,10 +8069,10 @@
         <v>6</v>
       </c>
       <c r="D436" t="n">
-        <v>1934.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E436" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="437">
@@ -8047,10 +8086,10 @@
         <v>6</v>
       </c>
       <c r="D437" t="n">
-        <v>1935.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E437" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="438">
@@ -8064,10 +8103,10 @@
         <v>6</v>
       </c>
       <c r="D438" t="n">
-        <v>1936.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E438" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
     </row>
     <row r="439">
@@ -8081,10 +8120,10 @@
         <v>6</v>
       </c>
       <c r="D439" t="n">
-        <v>1937.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E439" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="440">
@@ -8098,10 +8137,10 @@
         <v>6</v>
       </c>
       <c r="D440" t="n">
-        <v>1938.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E440" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="441">
@@ -8115,10 +8154,10 @@
         <v>6</v>
       </c>
       <c r="D441" t="n">
-        <v>1939.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E441" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="442">
@@ -8132,10 +8171,10 @@
         <v>6</v>
       </c>
       <c r="D442" t="n">
-        <v>1940.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E442" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="443">
@@ -8149,10 +8188,10 @@
         <v>6</v>
       </c>
       <c r="D443" t="n">
-        <v>1941.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E443" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="444">
@@ -8166,10 +8205,10 @@
         <v>6</v>
       </c>
       <c r="D444" t="n">
-        <v>1942.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E444" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="445">
@@ -8183,10 +8222,10 @@
         <v>6</v>
       </c>
       <c r="D445" t="n">
-        <v>1943.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E445" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="446">
@@ -8200,10 +8239,10 @@
         <v>6</v>
       </c>
       <c r="D446" t="n">
-        <v>1944.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E446" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="447">
@@ -8217,10 +8256,10 @@
         <v>6</v>
       </c>
       <c r="D447" t="n">
-        <v>1945.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E447" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="448">
@@ -8234,10 +8273,10 @@
         <v>6</v>
       </c>
       <c r="D448" t="n">
-        <v>1946.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E448" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="449">
@@ -8251,10 +8290,10 @@
         <v>6</v>
       </c>
       <c r="D449" t="n">
-        <v>1947.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E449" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="450">
@@ -8268,10 +8307,10 @@
         <v>6</v>
       </c>
       <c r="D450" t="n">
-        <v>1948.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E450" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="451">
@@ -8285,10 +8324,10 @@
         <v>6</v>
       </c>
       <c r="D451" t="n">
-        <v>1949.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E451" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="452">
@@ -8302,10 +8341,10 @@
         <v>6</v>
       </c>
       <c r="D452" t="n">
-        <v>1950.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E452" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="453">
@@ -8319,10 +8358,10 @@
         <v>6</v>
       </c>
       <c r="D453" t="n">
-        <v>1951.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E453" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="454">
@@ -8336,10 +8375,10 @@
         <v>6</v>
       </c>
       <c r="D454" t="n">
-        <v>1952.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E454" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="455">
@@ -8353,10 +8392,10 @@
         <v>6</v>
       </c>
       <c r="D455" t="n">
-        <v>1953.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E455" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="456">
@@ -8370,10 +8409,10 @@
         <v>6</v>
       </c>
       <c r="D456" t="n">
-        <v>1954.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E456" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="457">
@@ -8387,10 +8426,10 @@
         <v>6</v>
       </c>
       <c r="D457" t="n">
-        <v>1955.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E457" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="458">
@@ -8404,10 +8443,10 @@
         <v>6</v>
       </c>
       <c r="D458" t="n">
-        <v>1956.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E458" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="459">
@@ -8421,10 +8460,10 @@
         <v>6</v>
       </c>
       <c r="D459" t="n">
-        <v>1957.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E459" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="460">
@@ -8438,10 +8477,10 @@
         <v>6</v>
       </c>
       <c r="D460" t="n">
-        <v>1958.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E460" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="461">
@@ -8455,10 +8494,10 @@
         <v>6</v>
       </c>
       <c r="D461" t="n">
-        <v>1959.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E461" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="462">
@@ -8472,10 +8511,10 @@
         <v>6</v>
       </c>
       <c r="D462" t="n">
-        <v>1960.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E462" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="463">
@@ -8489,10 +8528,10 @@
         <v>6</v>
       </c>
       <c r="D463" t="n">
-        <v>1961.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E463" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="464">
@@ -8506,10 +8545,10 @@
         <v>6</v>
       </c>
       <c r="D464" t="n">
-        <v>1962.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E464" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="465">
@@ -8523,10 +8562,10 @@
         <v>6</v>
       </c>
       <c r="D465" t="n">
-        <v>1963.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E465" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="466">
@@ -8540,10 +8579,10 @@
         <v>6</v>
       </c>
       <c r="D466" t="n">
-        <v>1964.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E466" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="467">
@@ -8557,10 +8596,10 @@
         <v>6</v>
       </c>
       <c r="D467" t="n">
-        <v>1965.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E467" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="468">
@@ -8574,10 +8613,10 @@
         <v>6</v>
       </c>
       <c r="D468" t="n">
-        <v>1966.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E468" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="469">
@@ -8591,10 +8630,10 @@
         <v>6</v>
       </c>
       <c r="D469" t="n">
-        <v>1967.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E469" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="470">
@@ -8608,10 +8647,10 @@
         <v>6</v>
       </c>
       <c r="D470" t="n">
-        <v>1968.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E470" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471">
@@ -8625,10 +8664,10 @@
         <v>6</v>
       </c>
       <c r="D471" t="n">
-        <v>1969.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E471" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="472">
@@ -8642,10 +8681,10 @@
         <v>6</v>
       </c>
       <c r="D472" t="n">
-        <v>1970.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E472" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="473">
@@ -8659,10 +8698,10 @@
         <v>6</v>
       </c>
       <c r="D473" t="n">
-        <v>1971.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E473" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474">
@@ -8676,10 +8715,10 @@
         <v>6</v>
       </c>
       <c r="D474" t="n">
-        <v>1972.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E474" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475">
@@ -8693,10 +8732,10 @@
         <v>6</v>
       </c>
       <c r="D475" t="n">
-        <v>1973.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E475" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="476">
@@ -8710,10 +8749,10 @@
         <v>6</v>
       </c>
       <c r="D476" t="n">
-        <v>1974.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E476" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="477">
@@ -8727,10 +8766,10 @@
         <v>6</v>
       </c>
       <c r="D477" t="n">
-        <v>1975.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E477" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="478">
@@ -8744,10 +8783,10 @@
         <v>6</v>
       </c>
       <c r="D478" t="n">
-        <v>1976.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E478" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="479">
@@ -8761,10 +8800,10 @@
         <v>6</v>
       </c>
       <c r="D479" t="n">
-        <v>1977.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E479" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="480">
@@ -8778,10 +8817,10 @@
         <v>6</v>
       </c>
       <c r="D480" t="n">
-        <v>1978.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E480" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="481">
@@ -8795,10 +8834,10 @@
         <v>6</v>
       </c>
       <c r="D481" t="n">
-        <v>1979.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E481" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="482">
@@ -8812,10 +8851,10 @@
         <v>6</v>
       </c>
       <c r="D482" t="n">
-        <v>1980.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E482" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="483">
@@ -8829,10 +8868,10 @@
         <v>6</v>
       </c>
       <c r="D483" t="n">
-        <v>1981.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E483" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="484">
@@ -8846,10 +8885,10 @@
         <v>6</v>
       </c>
       <c r="D484" t="n">
-        <v>1982.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E484" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="485">
@@ -8863,10 +8902,10 @@
         <v>6</v>
       </c>
       <c r="D485" t="n">
-        <v>1983.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E485" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="486">
@@ -8880,10 +8919,10 @@
         <v>6</v>
       </c>
       <c r="D486" t="n">
-        <v>1984.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E486" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="487">
@@ -8897,10 +8936,10 @@
         <v>6</v>
       </c>
       <c r="D487" t="n">
-        <v>1985.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E487" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="488">
@@ -8914,10 +8953,10 @@
         <v>6</v>
       </c>
       <c r="D488" t="n">
-        <v>1986.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E488" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="489">
@@ -8931,10 +8970,10 @@
         <v>6</v>
       </c>
       <c r="D489" t="n">
-        <v>1987.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E489" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="490">
@@ -8948,10 +8987,10 @@
         <v>6</v>
       </c>
       <c r="D490" t="n">
-        <v>1988.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E490" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="491">
@@ -8965,10 +9004,10 @@
         <v>6</v>
       </c>
       <c r="D491" t="n">
-        <v>1989.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E491" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="492">
@@ -8982,10 +9021,10 @@
         <v>6</v>
       </c>
       <c r="D492" t="n">
-        <v>1990.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E492" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="493">
@@ -8999,10 +9038,10 @@
         <v>6</v>
       </c>
       <c r="D493" t="n">
-        <v>1991.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E493" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="494">
@@ -9016,10 +9055,10 @@
         <v>6</v>
       </c>
       <c r="D494" t="n">
-        <v>1992.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E494" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="495">
@@ -9033,10 +9072,10 @@
         <v>6</v>
       </c>
       <c r="D495" t="n">
-        <v>1993.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E495" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="496">
@@ -9050,10 +9089,10 @@
         <v>6</v>
       </c>
       <c r="D496" t="n">
-        <v>1994.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E496" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="497">
@@ -9067,10 +9106,10 @@
         <v>6</v>
       </c>
       <c r="D497" t="n">
-        <v>1995.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E497" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="498">
@@ -9084,10 +9123,10 @@
         <v>6</v>
       </c>
       <c r="D498" t="n">
-        <v>1996.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E498" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="499">
@@ -9101,10 +9140,10 @@
         <v>6</v>
       </c>
       <c r="D499" t="n">
-        <v>1997.0</v>
+        <v>2002.0</v>
       </c>
       <c r="E499" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="500">
@@ -9118,10 +9157,10 @@
         <v>6</v>
       </c>
       <c r="D500" t="n">
-        <v>1998.0</v>
+        <v>2003.0</v>
       </c>
       <c r="E500" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="501">
@@ -9135,10 +9174,10 @@
         <v>6</v>
       </c>
       <c r="D501" t="n">
-        <v>1999.0</v>
+        <v>2004.0</v>
       </c>
       <c r="E501" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="502">
@@ -9152,10 +9191,10 @@
         <v>6</v>
       </c>
       <c r="D502" t="n">
-        <v>2000.0</v>
+        <v>2005.0</v>
       </c>
       <c r="E502" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="503">
@@ -9169,10 +9208,10 @@
         <v>6</v>
       </c>
       <c r="D503" t="n">
-        <v>2001.0</v>
+        <v>2006.0</v>
       </c>
       <c r="E503" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="504">
@@ -9186,10 +9225,10 @@
         <v>6</v>
       </c>
       <c r="D504" t="n">
-        <v>2002.0</v>
+        <v>2007.0</v>
       </c>
       <c r="E504" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="505">
@@ -9203,10 +9242,10 @@
         <v>6</v>
       </c>
       <c r="D505" t="n">
-        <v>2003.0</v>
+        <v>2008.0</v>
       </c>
       <c r="E505" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="506">
@@ -9220,10 +9259,10 @@
         <v>6</v>
       </c>
       <c r="D506" t="n">
-        <v>2004.0</v>
+        <v>2009.0</v>
       </c>
       <c r="E506" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="507">
@@ -9237,10 +9276,10 @@
         <v>6</v>
       </c>
       <c r="D507" t="n">
-        <v>2005.0</v>
+        <v>2010.0</v>
       </c>
       <c r="E507" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="508">
@@ -9254,10 +9293,10 @@
         <v>6</v>
       </c>
       <c r="D508" t="n">
-        <v>2006.0</v>
+        <v>2011.0</v>
       </c>
       <c r="E508" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="509">
@@ -9271,10 +9310,10 @@
         <v>6</v>
       </c>
       <c r="D509" t="n">
-        <v>2007.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E509" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="510">
@@ -9288,10 +9327,10 @@
         <v>6</v>
       </c>
       <c r="D510" t="n">
-        <v>2008.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E510" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="511">
@@ -9305,10 +9344,10 @@
         <v>6</v>
       </c>
       <c r="D511" t="n">
-        <v>2009.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E511" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="512">
@@ -9322,10 +9361,27 @@
         <v>6</v>
       </c>
       <c r="D512" t="n">
-        <v>2010.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E512" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -9343,50 +9399,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
